--- a/data/trans_orig/P19C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EF63F5D-81F2-4ECC-A799-8A35CCA5AB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{250C1F7A-3693-484E-AB85-70A4E6B42C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{695B5695-1E46-4D49-8D2C-01BEF108FD9C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F580F13-215E-46BE-B81A-05B8DB298D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -113,13 +113,13 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -128,25 +128,25 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>98,64%</t>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>98,62%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,99%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -158,505 +158,523 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>98,37%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
     <t>0,04%</t>
   </si>
   <si>
+    <t>0,07%</t>
+  </si>
+  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>99,48%</t>
+    <t>99,93%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,86%</t>
+    <t>6,39%</t>
   </si>
   <si>
     <t>0,8%</t>
@@ -665,13 +683,13 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,14%</t>
+    <t>93,61%</t>
   </si>
   <si>
     <t>99,2%</t>
@@ -680,40 +698,46 @@
     <t>99,42%</t>
   </si>
   <si>
-    <t>97,21%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>99,41%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
     <t>99,97%</t>
   </si>
   <si>
-    <t>2,94%</t>
+    <t>3,2%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -722,49 +746,25 @@
     <t>0,25%</t>
   </si>
   <si>
+    <t>1,41%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>97,06%</t>
+    <t>96,8%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
+    <t>98,59%</t>
+  </si>
+  <si>
     <t>99,75%</t>
   </si>
   <si>
     <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6337AC16-EC7C-4DFF-AED3-AC307794DAA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED764F-4CEB-43C9-890F-F96C64620084}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1798,10 +1798,10 @@
         <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1816,13 @@
         <v>542207</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -1831,13 +1831,13 @@
         <v>581741</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1105</v>
@@ -1846,13 +1846,13 @@
         <v>1123948</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1908,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1926,7 +1926,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1935,13 +1935,13 @@
         <v>7655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1950,13 +1950,13 @@
         <v>11240</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,10 +1971,10 @@
         <v>706103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>45</v>
@@ -1986,13 +1986,13 @@
         <v>806343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>1524</v>
@@ -2001,13 +2001,13 @@
         <v>1512446</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2075,13 @@
         <v>8367</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2090,13 +2090,13 @@
         <v>14810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2105,13 +2105,13 @@
         <v>23177</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2126,13 @@
         <v>2446375</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>2665</v>
@@ -2141,13 +2141,13 @@
         <v>2726127</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>5063</v>
@@ -2156,13 +2156,13 @@
         <v>5172502</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,7 +2239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9825B959-A461-4FA1-ACE9-BFDB223C8F8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F164E-E467-4BE3-A28C-E79CD3857C7B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2378,13 +2378,13 @@
         <v>1083</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2393,13 +2393,13 @@
         <v>2759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
         <v>99078</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2429,10 +2429,10 @@
         <v>92735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2444,13 +2444,13 @@
         <v>191813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2518,13 @@
         <v>3889</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2533,13 +2533,13 @@
         <v>5665</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2548,13 +2548,13 @@
         <v>9554</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2569,13 @@
         <v>501308</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>504</v>
@@ -2584,10 +2584,10 @@
         <v>535273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -2599,13 +2599,13 @@
         <v>1036582</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2673,13 @@
         <v>3459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2688,13 +2688,13 @@
         <v>4175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2703,13 +2703,13 @@
         <v>7635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,10 +2724,10 @@
         <v>863539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2736,16 +2736,16 @@
         <v>817</v>
       </c>
       <c r="I11" s="7">
-        <v>894648</v>
+        <v>894647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>1614</v>
@@ -2754,13 +2754,13 @@
         <v>1758186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2787,7 @@
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>898823</v>
+        <v>898822</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2828,13 +2828,13 @@
         <v>6134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2858,13 +2858,13 @@
         <v>6134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2879,13 @@
         <v>629899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>614</v>
@@ -2897,7 +2897,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2909,13 +2909,13 @@
         <v>1307400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2971,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2983,13 +2983,13 @@
         <v>2884</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2998,13 +2998,13 @@
         <v>7909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3013,13 +3013,13 @@
         <v>10793</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3034,13 @@
         <v>802792</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>878</v>
@@ -3049,13 +3049,13 @@
         <v>924399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>1649</v>
@@ -3064,13 +3064,13 @@
         <v>1727192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3138,13 @@
         <v>18043</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3153,13 +3153,13 @@
         <v>18832</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -3168,13 +3168,13 @@
         <v>36875</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3189,13 @@
         <v>2896615</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
         <v>2894</v>
@@ -3204,13 +3204,13 @@
         <v>3124556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="M20" s="7">
         <v>5614</v>
@@ -3219,13 +3219,13 @@
         <v>6021172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0099065F-7FA3-4BD1-94E1-4BB55BE804CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56012DC9-D3EF-4F76-878F-784FCE28DA5F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3426,13 +3426,13 @@
         <v>913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3441,13 +3441,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3456,13 +3456,13 @@
         <v>1881</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,10 +3477,10 @@
         <v>97862</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -3492,10 +3492,10 @@
         <v>100033</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3507,10 +3507,10 @@
         <v>197895</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3587,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3596,13 +3596,13 @@
         <v>1156</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3647,10 +3647,10 @@
         <v>442205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3665,7 +3665,7 @@
         <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3742,7 +3742,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3757,7 +3757,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3772,7 +3772,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,10 +3787,10 @@
         <v>815194</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3802,10 +3802,10 @@
         <v>865163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3817,10 +3817,10 @@
         <v>1680357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3891,13 +3891,13 @@
         <v>1022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3906,13 +3906,13 @@
         <v>2592</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3921,13 +3921,13 @@
         <v>3614</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,10 +3942,10 @@
         <v>549338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3957,10 +3957,10 @@
         <v>577146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3972,13 +3972,13 @@
         <v>1126484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4052,7 +4052,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,7 +4100,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -4130,7 +4130,7 @@
         <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -4201,13 +4201,13 @@
         <v>4122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4219,10 +4219,10 @@
         <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4231,13 +4231,13 @@
         <v>10049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,16 +4249,16 @@
         <v>2526</v>
       </c>
       <c r="D20" s="7">
-        <v>2660212</v>
+        <v>2660211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>2722</v>
@@ -4270,25 +4270,25 @@
         <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>5248</v>
       </c>
       <c r="N20" s="7">
-        <v>5521600</v>
+        <v>5521599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4300,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4330,7 +4330,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4365,7 +4365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7C8416-38C1-4751-9492-1054D89BB2C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E620A4-083E-44F7-A85B-0B3299F93550}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4382,7 +4382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4489,13 +4489,13 @@
         <v>1326</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4519,13 +4519,13 @@
         <v>1326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,10 +4540,10 @@
         <v>99148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4558,7 +4558,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4570,10 +4570,10 @@
         <v>227434</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4644,13 +4644,13 @@
         <v>3152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4659,13 +4659,13 @@
         <v>1073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4674,13 +4674,13 @@
         <v>4224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4695,13 @@
         <v>522997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>957</v>
@@ -4710,10 +4710,10 @@
         <v>568424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4725,13 +4725,13 @@
         <v>1091422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4805,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4814,13 +4814,13 @@
         <v>2020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4832,10 +4832,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,7 +4853,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4865,13 +4865,13 @@
         <v>1040080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>2418</v>
@@ -4883,10 +4883,10 @@
         <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4954,13 @@
         <v>7456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4969,13 +4969,13 @@
         <v>5391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -4984,13 +4984,13 @@
         <v>12847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5005,13 @@
         <v>701085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>1016</v>
@@ -5020,13 +5020,13 @@
         <v>856797</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>1665</v>
@@ -5035,13 +5035,13 @@
         <v>1557883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,7 +5097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5109,13 +5109,13 @@
         <v>3581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5124,13 +5124,13 @@
         <v>6784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5142,10 +5142,10 @@
         <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,10 +5160,10 @@
         <v>922797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>45</v>
@@ -5175,13 +5175,13 @@
         <v>1107992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>2463</v>
@@ -5190,13 +5190,13 @@
         <v>2030789</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,10 +5267,10 @@
         <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5279,13 +5279,13 @@
         <v>15267</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -5294,13 +5294,13 @@
         <v>31343</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5315,13 @@
         <v>3261062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>5195</v>
@@ -5330,13 +5330,13 @@
         <v>3701581</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>8433</v>
@@ -5345,13 +5345,13 @@
         <v>6962643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{250C1F7A-3693-484E-AB85-70A4E6B42C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E50106B-2067-4042-BB35-2BA42EEA1495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F580F13-215E-46BE-B81A-05B8DB298D6F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB421DA4-18DB-47BC-A062-F6AD87A01E09}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="248">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -107,19 +107,19 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -128,643 +128,661 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED764F-4CEB-43C9-890F-F96C64620084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A2488-2E6A-4602-91AE-50B1438E00AB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,7 +1366,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1399,7 +1417,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1798,10 +1816,10 @@
         <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1834,13 @@
         <v>542207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -1831,13 +1849,13 @@
         <v>581741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1105</v>
@@ -1846,13 +1864,13 @@
         <v>1123948</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1926,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1926,7 +1944,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1935,13 +1953,13 @@
         <v>7655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1950,13 +1968,13 @@
         <v>11240</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,10 +1989,10 @@
         <v>706103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>45</v>
@@ -1986,13 +2004,13 @@
         <v>806343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>1524</v>
@@ -2001,13 +2019,13 @@
         <v>1512446</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2093,13 @@
         <v>8367</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2090,13 +2108,13 @@
         <v>14810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2105,13 +2123,13 @@
         <v>23177</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2144,13 @@
         <v>2446375</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>2665</v>
@@ -2141,13 +2159,13 @@
         <v>2726127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>5063</v>
@@ -2156,13 +2174,13 @@
         <v>5172502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,7 +2236,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F164E-E467-4BE3-A28C-E79CD3857C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78938D90-C991-412C-B7D8-DD3670FAC58F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2256,7 +2274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2363,13 +2381,13 @@
         <v>1676</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2378,13 +2396,13 @@
         <v>1083</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2393,7 +2411,7 @@
         <v>2759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>105</v>
@@ -2429,10 +2447,10 @@
         <v>92735</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2444,13 +2462,13 @@
         <v>191813</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2536,13 @@
         <v>3889</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2533,13 +2551,13 @@
         <v>5665</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2548,13 +2566,13 @@
         <v>9554</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2587,13 @@
         <v>501308</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>504</v>
@@ -2584,10 +2602,10 @@
         <v>535273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -2599,13 +2617,13 @@
         <v>1036582</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2691,13 @@
         <v>3459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2688,13 +2706,13 @@
         <v>4175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2703,13 +2721,13 @@
         <v>7635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,10 +2742,10 @@
         <v>863539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2739,13 +2757,13 @@
         <v>894647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1614</v>
@@ -2754,13 +2772,13 @@
         <v>1758186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2846,13 @@
         <v>6134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2849,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2858,13 +2876,13 @@
         <v>6134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2897,13 @@
         <v>629899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>614</v>
@@ -2897,7 +2915,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2909,13 +2927,13 @@
         <v>1307400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2989,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2983,13 +3001,13 @@
         <v>2884</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2998,13 +3016,13 @@
         <v>7909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3013,13 +3031,13 @@
         <v>10793</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3052,13 @@
         <v>802792</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>878</v>
@@ -3049,13 +3067,13 @@
         <v>924399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>1649</v>
@@ -3064,13 +3082,13 @@
         <v>1727192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3156,13 @@
         <v>18043</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3153,13 +3171,13 @@
         <v>18832</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -3168,13 +3186,13 @@
         <v>36875</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3207,13 @@
         <v>2896615</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H20" s="7">
         <v>2894</v>
@@ -3204,10 +3222,10 @@
         <v>3124556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>34</v>
@@ -3219,13 +3237,13 @@
         <v>6021172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3299,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56012DC9-D3EF-4F76-878F-784FCE28DA5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89AD2FC-ABCC-47E3-A8D5-91E41C14E00E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3426,13 +3444,13 @@
         <v>913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3441,13 +3459,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3456,13 +3474,13 @@
         <v>1881</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,10 +3495,10 @@
         <v>97862</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -3492,10 +3510,10 @@
         <v>100033</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3507,10 +3525,10 @@
         <v>197895</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3587,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3596,13 +3614,13 @@
         <v>1156</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3617,7 +3635,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3653,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3647,10 +3665,10 @@
         <v>442205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3665,7 +3683,7 @@
         <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3742,7 +3760,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3757,7 +3775,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3772,7 +3790,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,10 +3805,10 @@
         <v>815194</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3802,10 +3820,10 @@
         <v>865163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3817,10 +3835,10 @@
         <v>1680357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3906,7 +3924,7 @@
         <v>2592</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
@@ -3921,13 +3939,13 @@
         <v>3614</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,10 +3960,10 @@
         <v>549338</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3957,10 +3975,10 @@
         <v>577146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3972,13 +3990,13 @@
         <v>1126484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,7 +4052,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4052,7 +4070,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4082,7 +4100,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,7 +4118,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -4130,7 +4148,7 @@
         <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -4201,13 +4219,13 @@
         <v>4122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4219,10 +4237,10 @@
         <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4231,13 +4249,13 @@
         <v>10049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,16 +4267,16 @@
         <v>2526</v>
       </c>
       <c r="D20" s="7">
-        <v>2660211</v>
+        <v>2660212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>2722</v>
@@ -4270,10 +4288,10 @@
         <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>5248</v>
@@ -4282,13 +4300,13 @@
         <v>5521599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4318,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4344,7 +4362,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +4383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E620A4-083E-44F7-A85B-0B3299F93550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70ECCEA-6201-49FD-BD60-47F35740A7A7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4644,7 +4662,7 @@
         <v>3152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>57</v>
@@ -4665,7 +4683,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4674,13 +4692,13 @@
         <v>4224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4713,13 @@
         <v>522997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
         <v>957</v>
@@ -4710,10 +4728,10 @@
         <v>568424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4725,10 +4743,10 @@
         <v>1091422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>45</v>
@@ -4805,7 +4823,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4817,10 +4835,10 @@
         <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4832,10 +4850,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,7 +4871,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4865,13 +4883,13 @@
         <v>1040080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>2418</v>
@@ -4883,10 +4901,10 @@
         <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4972,13 @@
         <v>7456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4969,13 +4987,13 @@
         <v>5391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -4984,7 +5002,7 @@
         <v>12847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>27</v>
@@ -5005,13 +5023,13 @@
         <v>701085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>1016</v>
@@ -5020,13 +5038,13 @@
         <v>856797</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>1665</v>
@@ -5035,10 +5053,10 @@
         <v>1557883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>34</v>
@@ -5097,7 +5115,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5109,13 +5127,13 @@
         <v>3581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5124,13 +5142,13 @@
         <v>6784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5142,10 +5160,10 @@
         <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,10 +5178,10 @@
         <v>922797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>45</v>
@@ -5175,10 +5193,10 @@
         <v>1107992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>47</v>
@@ -5190,13 +5208,13 @@
         <v>2030789</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,10 +5285,10 @@
         <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5279,13 +5297,13 @@
         <v>15267</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -5294,13 +5312,13 @@
         <v>31343</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5333,13 @@
         <v>3261062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>5195</v>
@@ -5330,13 +5348,13 @@
         <v>3701581</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>8433</v>
@@ -5345,13 +5363,13 @@
         <v>6962643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5425,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E50106B-2067-4042-BB35-2BA42EEA1495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98027C1-2838-481F-B730-0C84ACE0C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB421DA4-18DB-47BC-A062-F6AD87A01E09}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9F0D6AF-F105-4FED-ABC5-BA5CE3CDCBD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="242">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -113,13 +113,13 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -128,25 +128,25 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>98,55%</t>
+    <t>98,64%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,16%</t>
+    <t>98,99%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -158,13 +158,13 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -173,616 +173,598 @@
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>99,31%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A2488-2E6A-4602-91AE-50B1438E00AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03CB478-BF06-406E-B9DD-53D6A43ACA89}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1366,7 +1348,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1417,7 +1399,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1971,10 +1953,10 @@
         <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,7 +1974,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>45</v>
@@ -2004,13 +1986,13 @@
         <v>806343</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>1524</v>
@@ -2019,13 +2001,13 @@
         <v>1512446</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,13 +2075,13 @@
         <v>8367</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2126,10 +2108,10 @@
         <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2126,13 @@
         <v>2446375</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>2665</v>
@@ -2177,10 +2159,10 @@
         <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,7 +2218,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78938D90-C991-412C-B7D8-DD3670FAC58F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87311D33-DDF3-4F54-8C1A-F64568459875}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2274,7 +2256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2381,13 +2363,13 @@
         <v>1676</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2402,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2411,13 +2393,13 @@
         <v>2759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,10 +2414,10 @@
         <v>99078</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2447,10 +2429,10 @@
         <v>92735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2462,7 +2444,7 @@
         <v>191813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>110</v>
@@ -2539,10 +2521,10 @@
         <v>112</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2551,13 +2533,13 @@
         <v>5665</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2566,13 +2548,13 @@
         <v>9554</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2569,13 @@
         <v>501308</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="H8" s="7">
         <v>504</v>
@@ -2602,10 +2584,10 @@
         <v>535273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -2617,10 +2599,10 @@
         <v>1036582</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>97</v>
@@ -2691,13 +2673,13 @@
         <v>3459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2706,13 +2688,13 @@
         <v>4175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2721,13 +2703,13 @@
         <v>7635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,10 +2724,10 @@
         <v>863539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2754,16 +2736,16 @@
         <v>817</v>
       </c>
       <c r="I11" s="7">
-        <v>894647</v>
+        <v>894648</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>1614</v>
@@ -2772,10 +2754,10 @@
         <v>1758186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>64</v>
@@ -2805,7 +2787,7 @@
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>898822</v>
+        <v>898823</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2846,13 +2828,13 @@
         <v>6134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2867,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2876,13 +2858,13 @@
         <v>6134</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2879,13 @@
         <v>629899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7">
         <v>614</v>
@@ -2915,7 +2897,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2927,13 +2909,13 @@
         <v>1307400</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2983,13 @@
         <v>2884</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3016,13 +2998,13 @@
         <v>7909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3031,13 +3013,13 @@
         <v>10793</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3034,13 @@
         <v>802792</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>878</v>
@@ -3067,13 +3049,13 @@
         <v>924399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1649</v>
@@ -3082,13 +3064,13 @@
         <v>1727192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3138,13 @@
         <v>18043</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3171,13 +3153,13 @@
         <v>18832</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -3186,13 +3168,13 @@
         <v>36875</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3189,13 @@
         <v>2896615</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>2894</v>
@@ -3222,13 +3204,13 @@
         <v>3124556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>5614</v>
@@ -3237,10 +3219,10 @@
         <v>6021172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>111</v>
@@ -3299,7 +3281,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89AD2FC-ABCC-47E3-A8D5-91E41C14E00E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B32A66B-9089-4B88-B1B9-EBB3436B4689}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3337,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3444,13 +3426,13 @@
         <v>913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3459,13 +3441,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3480,7 +3462,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,10 +3477,10 @@
         <v>97862</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -3510,10 +3492,10 @@
         <v>100033</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3525,10 +3507,10 @@
         <v>197895</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3605,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3614,13 +3596,13 @@
         <v>1156</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3635,7 +3617,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,7 +3635,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3665,10 +3647,10 @@
         <v>442205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3683,7 +3665,7 @@
         <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3760,7 +3742,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3775,7 +3757,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3790,7 +3772,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3790,7 @@
         <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3823,7 +3805,7 @@
         <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3838,7 +3820,7 @@
         <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3909,13 +3891,13 @@
         <v>1022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3930,7 +3912,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3939,13 +3921,13 @@
         <v>3614</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,10 +3942,10 @@
         <v>549338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3978,7 +3960,7 @@
         <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3990,13 +3972,13 @@
         <v>1126484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4052,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4100,7 +4082,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4100,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -4148,7 +4130,7 @@
         <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -4219,13 +4201,13 @@
         <v>4122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4237,10 +4219,10 @@
         <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4249,13 +4231,13 @@
         <v>10049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4252,13 @@
         <v>2660212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>2722</v>
@@ -4288,25 +4270,25 @@
         <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>5248</v>
       </c>
       <c r="N20" s="7">
-        <v>5521599</v>
+        <v>5521600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,7 +4330,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4362,7 +4344,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4383,7 +4365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70ECCEA-6201-49FD-BD60-47F35740A7A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4378849-E9F4-42DD-9352-76556C6EC051}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4400,7 +4382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4507,13 +4489,13 @@
         <v>1326</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4528,7 +4510,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4537,13 +4519,13 @@
         <v>1326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,10 +4540,10 @@
         <v>99148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4576,7 +4558,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4588,10 +4570,10 @@
         <v>227434</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4662,13 +4644,13 @@
         <v>3152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4677,13 +4659,13 @@
         <v>1073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4692,13 +4674,13 @@
         <v>4224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,10 +4695,10 @@
         <v>522997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>67</v>
@@ -4728,10 +4710,10 @@
         <v>568424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4743,13 +4725,13 @@
         <v>1091422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,7 +4805,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4832,13 +4814,13 @@
         <v>2020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4850,10 +4832,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4853,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4883,13 +4865,13 @@
         <v>1040080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>2418</v>
@@ -4901,10 +4883,10 @@
         <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4954,13 @@
         <v>7456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4987,13 +4969,13 @@
         <v>5391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5002,13 +4984,13 @@
         <v>12847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5005,13 @@
         <v>701085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>1016</v>
@@ -5038,13 +5020,13 @@
         <v>856797</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1665</v>
@@ -5053,13 +5035,13 @@
         <v>1557883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5109,13 @@
         <v>3581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5142,13 +5124,13 @@
         <v>6784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5160,10 +5142,10 @@
         <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,10 +5160,10 @@
         <v>922797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>45</v>
@@ -5193,13 +5175,13 @@
         <v>1107992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>2463</v>
@@ -5211,10 +5193,10 @@
         <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,10 +5267,10 @@
         <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5297,13 +5279,13 @@
         <v>15267</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -5315,10 +5297,10 @@
         <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,10 +5318,10 @@
         <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>5195</v>
@@ -5348,13 +5330,13 @@
         <v>3701581</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>8433</v>
@@ -5366,10 +5348,10 @@
         <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,7 +5407,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98027C1-2838-481F-B730-0C84ACE0C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0625CBBA-C835-4211-B6F7-87790655B090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9F0D6AF-F105-4FED-ABC5-BA5CE3CDCBD9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{485316B3-C444-4736-89B6-89324478CCA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="209">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,703 +68,604 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,2%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1077,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03CB478-BF06-406E-B9DD-53D6A43ACA89}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C32F74-DD14-4E1B-97F3-81CDF0AD2B4B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1294,10 +1195,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1309,85 +1210,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>469</v>
       </c>
       <c r="D5" s="7">
-        <v>77765</v>
+        <v>476872</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>107</v>
+        <v>544</v>
       </c>
       <c r="I5" s="7">
-        <v>94748</v>
+        <v>536151</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1013</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1013023</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>177</v>
-      </c>
-      <c r="N5" s="7">
-        <v>172514</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,54 +1297,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>477837</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>546</v>
       </c>
       <c r="I6" s="7">
-        <v>94748</v>
+        <v>538104</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>1016</v>
       </c>
       <c r="N6" s="7">
-        <v>172514</v>
+        <v>1015941</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1452,97 +1353,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>965</v>
+        <v>935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1953</v>
+        <v>2334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2918</v>
+        <v>3269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>399</v>
+        <v>667</v>
       </c>
       <c r="D8" s="7">
-        <v>399107</v>
+        <v>721193</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>437</v>
+        <v>754</v>
       </c>
       <c r="I8" s="7">
-        <v>441402</v>
+        <v>801892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>836</v>
+        <v>1421</v>
       </c>
       <c r="N8" s="7">
-        <v>840509</v>
+        <v>1523085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,153 +1452,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7">
-        <v>400072</v>
+        <v>722128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>439</v>
+        <v>756</v>
       </c>
       <c r="I9" s="7">
-        <v>443355</v>
+        <v>804226</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>839</v>
+        <v>1424</v>
       </c>
       <c r="N9" s="7">
-        <v>843427</v>
+        <v>1526354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>935</v>
+        <v>2882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2868</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5750</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2334</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3269</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>667</v>
+        <v>512</v>
       </c>
       <c r="D11" s="7">
-        <v>721193</v>
+        <v>542207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>754</v>
+        <v>593</v>
       </c>
       <c r="I11" s="7">
-        <v>801892</v>
+        <v>581741</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>1421</v>
+        <v>1105</v>
       </c>
       <c r="N11" s="7">
-        <v>1523085</v>
+        <v>1123948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,129 +1607,129 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>722128</v>
+        <v>545089</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>756</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7">
-        <v>804226</v>
+        <v>584609</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>1424</v>
+        <v>1111</v>
       </c>
       <c r="N12" s="7">
-        <v>1526354</v>
+        <v>1129698</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2882</v>
+        <v>3585</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>2868</v>
+        <v>7655</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>5750</v>
+        <v>11240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>512</v>
+        <v>750</v>
       </c>
       <c r="D14" s="7">
-        <v>542207</v>
+        <v>706103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7">
-        <v>593</v>
+        <v>774</v>
       </c>
       <c r="I14" s="7">
-        <v>581741</v>
+        <v>806343</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>65</v>
@@ -1840,10 +1741,10 @@
         <v>67</v>
       </c>
       <c r="M14" s="7">
-        <v>1105</v>
+        <v>1524</v>
       </c>
       <c r="N14" s="7">
-        <v>1123948</v>
+        <v>1512446</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>68</v>
@@ -1852,7 +1753,7 @@
         <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,78 +1762,78 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>515</v>
+        <v>754</v>
       </c>
       <c r="D15" s="7">
-        <v>545089</v>
+        <v>709688</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>596</v>
+        <v>781</v>
       </c>
       <c r="I15" s="7">
-        <v>584609</v>
+        <v>813998</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>1111</v>
+        <v>1535</v>
       </c>
       <c r="N15" s="7">
-        <v>1129698</v>
+        <v>1523686</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>3585</v>
+        <v>8367</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>72</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>7655</v>
+        <v>14810</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>73</v>
@@ -1944,70 +1845,70 @@
         <v>75</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>11240</v>
+        <v>23177</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>750</v>
+        <v>2398</v>
       </c>
       <c r="D17" s="7">
-        <v>706103</v>
+        <v>2446375</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
-        <v>774</v>
+        <v>2665</v>
       </c>
       <c r="I17" s="7">
-        <v>806343</v>
+        <v>2726127</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
-        <v>1524</v>
+        <v>5063</v>
       </c>
       <c r="N17" s="7">
-        <v>1512446</v>
+        <v>5172502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,217 +1917,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>754</v>
+        <v>2407</v>
       </c>
       <c r="D18" s="7">
-        <v>709688</v>
+        <v>2454742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>781</v>
+        <v>2679</v>
       </c>
       <c r="I18" s="7">
-        <v>813998</v>
+        <v>2740937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>1535</v>
+        <v>5086</v>
       </c>
       <c r="N18" s="7">
-        <v>1523686</v>
+        <v>5195679</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>8367</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="7">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7">
-        <v>14810</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="7">
-        <v>23</v>
-      </c>
-      <c r="N19" s="7">
-        <v>23177</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2398</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2446375</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2665</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2726127</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5063</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5172502</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2407</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2454742</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2679</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2740937</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5086</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5195679</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2239,8 +1984,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87311D33-DDF3-4F54-8C1A-F64568459875}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F391041-7521-47BD-8D2A-86E54B65E365}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2256,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2357,100 +2102,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1676</v>
+        <v>5565</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>1083</v>
+        <v>6747</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>2759</v>
+        <v>12312</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>575</v>
       </c>
       <c r="D5" s="7">
-        <v>99078</v>
+        <v>600386</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="I5" s="7">
-        <v>92735</v>
+        <v>628009</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
-        <v>184</v>
+        <v>1160</v>
       </c>
       <c r="N5" s="7">
-        <v>191813</v>
+        <v>1228396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,153 +2204,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>581</v>
       </c>
       <c r="D6" s="7">
-        <v>100754</v>
+        <v>605951</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="I6" s="7">
-        <v>93818</v>
+        <v>634756</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>187</v>
+        <v>1172</v>
       </c>
       <c r="N6" s="7">
-        <v>194572</v>
+        <v>1240708</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3459</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
-        <v>3889</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
       <c r="I7" s="7">
-        <v>5665</v>
+        <v>4175</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>9554</v>
+        <v>7635</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>472</v>
+        <v>797</v>
       </c>
       <c r="D8" s="7">
-        <v>501308</v>
+        <v>863539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>504</v>
+        <v>817</v>
       </c>
       <c r="I8" s="7">
-        <v>535273</v>
+        <v>894648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
-        <v>976</v>
+        <v>1614</v>
       </c>
       <c r="N8" s="7">
-        <v>1036582</v>
+        <v>1758186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,153 +2359,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>476</v>
+        <v>799</v>
       </c>
       <c r="D9" s="7">
-        <v>505197</v>
+        <v>866998</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>509</v>
+        <v>821</v>
       </c>
       <c r="I9" s="7">
-        <v>540938</v>
+        <v>898823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>985</v>
+        <v>1620</v>
       </c>
       <c r="N9" s="7">
-        <v>1046136</v>
+        <v>1765821</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3459</v>
+        <v>6134</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6134</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4175</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="7">
-        <v>6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>7635</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>797</v>
+        <v>577</v>
       </c>
       <c r="D11" s="7">
-        <v>863539</v>
+        <v>629899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
-        <v>817</v>
+        <v>614</v>
       </c>
       <c r="I11" s="7">
-        <v>894648</v>
+        <v>677501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>1614</v>
+        <v>1191</v>
       </c>
       <c r="N11" s="7">
-        <v>1758186</v>
+        <v>1307400</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,153 +2514,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>799</v>
+        <v>582</v>
       </c>
       <c r="D12" s="7">
-        <v>866998</v>
+        <v>636033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>821</v>
+        <v>614</v>
       </c>
       <c r="I12" s="7">
-        <v>898823</v>
+        <v>677501</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>1620</v>
+        <v>1196</v>
       </c>
       <c r="N12" s="7">
-        <v>1765821</v>
+        <v>1313534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6134</v>
+        <v>2884</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>7909</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="7">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
       <c r="N13" s="7">
-        <v>6134</v>
+        <v>10793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>577</v>
+        <v>771</v>
       </c>
       <c r="D14" s="7">
-        <v>629899</v>
+        <v>802792</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
-        <v>614</v>
+        <v>878</v>
       </c>
       <c r="I14" s="7">
-        <v>677501</v>
+        <v>924399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
-        <v>1191</v>
+        <v>1649</v>
       </c>
       <c r="N14" s="7">
-        <v>1307400</v>
+        <v>1727192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,153 +2669,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>774</v>
       </c>
       <c r="D15" s="7">
-        <v>636033</v>
+        <v>805676</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>614</v>
+        <v>886</v>
       </c>
       <c r="I15" s="7">
-        <v>677501</v>
+        <v>932308</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>1196</v>
+        <v>1660</v>
       </c>
       <c r="N15" s="7">
-        <v>1313534</v>
+        <v>1737985</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>2884</v>
+        <v>18043</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>7909</v>
+        <v>18832</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>10793</v>
+        <v>36875</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>771</v>
+        <v>2720</v>
       </c>
       <c r="D17" s="7">
-        <v>802792</v>
+        <v>2896616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
-        <v>878</v>
+        <v>2894</v>
       </c>
       <c r="I17" s="7">
-        <v>924399</v>
+        <v>3124557</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="M17" s="7">
-        <v>1649</v>
+        <v>5614</v>
       </c>
       <c r="N17" s="7">
-        <v>1727192</v>
+        <v>6021172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,217 +2824,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>774</v>
+        <v>2736</v>
       </c>
       <c r="D18" s="7">
-        <v>805676</v>
+        <v>2914659</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>886</v>
+        <v>2912</v>
       </c>
       <c r="I18" s="7">
-        <v>932308</v>
+        <v>3143389</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>1660</v>
+        <v>5648</v>
       </c>
       <c r="N18" s="7">
-        <v>1737985</v>
+        <v>6058047</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7">
-        <v>18043</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18832</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M19" s="7">
-        <v>34</v>
-      </c>
-      <c r="N19" s="7">
-        <v>36875</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2720</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2896615</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2894</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3124556</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5614</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6021172</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2736</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2912</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3143388</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5648</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6058047</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>98</v>
+      <c r="A19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3302,8 +2891,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B32A66B-9089-4B88-B1B9-EBB3436B4689}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2970ED-1C86-471B-890F-4C591A3FCBFD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3319,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3426,94 +3015,94 @@
         <v>913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>968</v>
+        <v>2124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1881</v>
+        <v>3037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>506</v>
       </c>
       <c r="D5" s="7">
-        <v>97862</v>
+        <v>524080</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>101</v>
+        <v>542</v>
       </c>
       <c r="I5" s="7">
-        <v>100033</v>
+        <v>542239</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>195</v>
+        <v>1048</v>
       </c>
       <c r="N5" s="7">
-        <v>197895</v>
+        <v>1066319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,153 +3111,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="D6" s="7">
-        <v>98775</v>
+        <v>524993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>101001</v>
+        <v>544363</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1051</v>
       </c>
       <c r="N6" s="7">
-        <v>199776</v>
+        <v>1069356</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1156</v>
+        <v>1210</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1156</v>
+        <v>2362</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>412</v>
+        <v>753</v>
       </c>
       <c r="D8" s="7">
-        <v>426218</v>
+        <v>815194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>441</v>
+        <v>817</v>
       </c>
       <c r="I8" s="7">
-        <v>442205</v>
+        <v>865163</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>853</v>
+        <v>1570</v>
       </c>
       <c r="N8" s="7">
-        <v>868424</v>
+        <v>1680357</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,54 +3266,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="D9" s="7">
-        <v>426218</v>
+        <v>816346</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>442</v>
+        <v>818</v>
       </c>
       <c r="I9" s="7">
-        <v>443361</v>
+        <v>866373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>854</v>
+        <v>1572</v>
       </c>
       <c r="N9" s="7">
-        <v>869580</v>
+        <v>1682719</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3733,97 +3322,97 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1152</v>
+        <v>1022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1210</v>
+        <v>2592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2362</v>
+        <v>3614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>753</v>
+        <v>500</v>
       </c>
       <c r="D11" s="7">
-        <v>815194</v>
+        <v>549338</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>817</v>
+        <v>550</v>
       </c>
       <c r="I11" s="7">
-        <v>865163</v>
+        <v>577146</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1570</v>
+        <v>1050</v>
       </c>
       <c r="N11" s="7">
-        <v>1680357</v>
+        <v>1126484</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,54 +3421,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>816346</v>
+        <v>550360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>818</v>
+        <v>552</v>
       </c>
       <c r="I12" s="7">
-        <v>866373</v>
+        <v>579738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>1572</v>
+        <v>1053</v>
       </c>
       <c r="N12" s="7">
-        <v>1682719</v>
+        <v>1130098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3888,97 +3477,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1022</v>
+        <v>1036</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>2592</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>3614</v>
+        <v>1036</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>500</v>
+        <v>767</v>
       </c>
       <c r="D14" s="7">
-        <v>549338</v>
+        <v>771599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>550</v>
+        <v>813</v>
       </c>
       <c r="I14" s="7">
-        <v>577146</v>
+        <v>876841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>1050</v>
+        <v>1580</v>
       </c>
       <c r="N14" s="7">
-        <v>1126484</v>
+        <v>1648440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,153 +3576,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>768</v>
       </c>
       <c r="D15" s="7">
-        <v>550360</v>
+        <v>772635</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="I15" s="7">
-        <v>579738</v>
+        <v>876841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>1053</v>
+        <v>1581</v>
       </c>
       <c r="N15" s="7">
-        <v>1130098</v>
+        <v>1649476</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1036</v>
+        <v>4122</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>5926</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>1036</v>
+        <v>10049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>767</v>
+        <v>2526</v>
       </c>
       <c r="D17" s="7">
-        <v>771599</v>
+        <v>2660211</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
-        <v>813</v>
+        <v>2722</v>
       </c>
       <c r="I17" s="7">
-        <v>876841</v>
+        <v>2861389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
-        <v>1580</v>
+        <v>5248</v>
       </c>
       <c r="N17" s="7">
-        <v>1648440</v>
+        <v>5521599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,217 +3731,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>768</v>
+        <v>2530</v>
       </c>
       <c r="D18" s="7">
-        <v>772635</v>
+        <v>2664333</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>813</v>
+        <v>2727</v>
       </c>
       <c r="I18" s="7">
-        <v>876841</v>
+        <v>2867315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>1581</v>
+        <v>5257</v>
       </c>
       <c r="N18" s="7">
-        <v>1649476</v>
+        <v>5531648</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4122</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5926</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M19" s="7">
-        <v>9</v>
-      </c>
-      <c r="N19" s="7">
-        <v>10049</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2526</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2660212</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2722</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2861389</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5248</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5521600</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2530</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2727</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2867315</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5257</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4365,8 +3798,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4378849-E9F4-42DD-9352-76556C6EC051}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB29585-0CB3-412F-9896-889FDA6AAAE0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4382,7 +3815,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4483,100 +3916,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1326</v>
+        <v>4293</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>1326</v>
+        <v>5287</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>692</v>
       </c>
       <c r="D5" s="7">
-        <v>99148</v>
+        <v>607011</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
-        <v>238</v>
+        <v>1195</v>
       </c>
       <c r="I5" s="7">
-        <v>128286</v>
+        <v>650538</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>352</v>
+        <v>1887</v>
       </c>
       <c r="N5" s="7">
-        <v>227434</v>
+        <v>1257549</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,153 +4018,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1197</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>651532</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1893</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>512</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
-        <v>3152</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
       <c r="I7" s="7">
-        <v>1073</v>
+        <v>1757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>4224</v>
+        <v>2269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>935</v>
       </c>
       <c r="D8" s="7">
-        <v>522997</v>
+        <v>1166204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>957</v>
+        <v>1483</v>
       </c>
       <c r="I8" s="7">
-        <v>568424</v>
+        <v>940568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>1535</v>
+        <v>2418</v>
       </c>
       <c r="N8" s="7">
-        <v>1091422</v>
+        <v>2106771</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,153 +4173,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1166716</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>959</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>569497</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>1540</v>
+        <v>2422</v>
       </c>
       <c r="N9" s="7">
-        <v>1095646</v>
+        <v>2109040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>561</v>
+        <v>7052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>2020</v>
+        <v>4737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>2581</v>
+        <v>11789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>935</v>
+        <v>649</v>
       </c>
       <c r="D11" s="7">
-        <v>1015035</v>
+        <v>679215</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7">
-        <v>1483</v>
+        <v>1016</v>
       </c>
       <c r="I11" s="7">
-        <v>1040080</v>
+        <v>917316</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
-        <v>2418</v>
+        <v>1665</v>
       </c>
       <c r="N11" s="7">
-        <v>2055115</v>
+        <v>1596531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,153 +4328,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1015596</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>2422</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2057696</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>7456</v>
+        <v>3128</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>5391</v>
+        <v>6041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>12847</v>
+        <v>9169</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>649</v>
+        <v>962</v>
       </c>
       <c r="D14" s="7">
-        <v>701085</v>
+        <v>886807</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
-        <v>1016</v>
+        <v>1501</v>
       </c>
       <c r="I14" s="7">
-        <v>856797</v>
+        <v>1056876</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
-        <v>1665</v>
+        <v>2463</v>
       </c>
       <c r="N14" s="7">
-        <v>1557883</v>
+        <v>1943682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,153 +4483,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>966</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>889935</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2476</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1952851</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>3581</v>
+        <v>14985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>6784</v>
+        <v>13529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>10365</v>
+        <v>28514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>962</v>
+        <v>3238</v>
       </c>
       <c r="D17" s="7">
-        <v>922797</v>
+        <v>3339236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
-        <v>1501</v>
+        <v>5195</v>
       </c>
       <c r="I17" s="7">
-        <v>1107992</v>
+        <v>3565298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
-        <v>2463</v>
+        <v>8433</v>
       </c>
       <c r="N17" s="7">
-        <v>2030789</v>
+        <v>6904534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,217 +4638,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>966</v>
+        <v>3253</v>
       </c>
       <c r="D18" s="7">
-        <v>926378</v>
+        <v>3354221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5217</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>2476</v>
+        <v>8470</v>
       </c>
       <c r="N18" s="7">
-        <v>2041154</v>
+        <v>6933048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7">
-        <v>16076</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="7">
-        <v>22</v>
-      </c>
-      <c r="I19" s="7">
-        <v>15267</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M19" s="7">
-        <v>37</v>
-      </c>
-      <c r="N19" s="7">
-        <v>31343</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3238</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3261062</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5195</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3701581</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8433</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6962643</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3253</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5217</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8470</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>98</v>
+      <c r="A19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
